--- a/week16/data.xlsx
+++ b/week16/data.xlsx
@@ -9,14 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29300" yWindow="2040" windowWidth="24560" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="10500" yWindow="780" windowWidth="12840" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Alabama</t>
   </si>
@@ -207,6 +204,156 @@
   </si>
   <si>
     <t>unemployment</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -291,574 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ACS_14_1YR_S2301_with_ann"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Alabama</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Ala.</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>AL</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Alaska</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Alaska</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>AK</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Arizona</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Ariz.</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>AZ</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Arkansas</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Ark.</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>AR</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>California</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Calif.</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>CA</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Colorado</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Colo.</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>CO</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Connecticut</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Conn.</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>CT</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Delaware</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Del.</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>DE</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Florida</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Fla.</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>FL</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Georgia</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Ga.</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>GA</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Hawaii</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Hawaii</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>HI</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Idaho</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Idaho</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>ID</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Ill.</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>IL</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Indiana</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Ind.</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>IN</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Iowa</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Iowa</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>IA</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Kansas</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Kans.</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>KS</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Kentucky</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Ky.</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>KY</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Louisiana</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>La.</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>LA</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Maine</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Maine</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>ME</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Maryland</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Md.</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>MD</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Massachusetts</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Mass.</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>MA</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Michigan</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Mich.</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>MI</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Minnesota</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Minn.</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>MN</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Mississippi</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>Miss.</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>MS</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Missouri</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>Mo.</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>MO</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Montana</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>Mont.</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>MT</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Nebraska</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>Nebr.</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>NE</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Nevada</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>Nev.</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>NV</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>New Hampshire</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>N.H.</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>NH</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>New Jersey</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>N.J.</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>New Mexico</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>N.M.</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>NM</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>N.Y.</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>NY</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>North Carolina</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>N.C.</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>NC</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>North Dakota</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>N.D.</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>ND</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Ohio</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>Ohio</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>OH</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oklahoma</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>Okla.</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>OK</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Oregon</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>Ore.</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>OR</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Pennsylvania</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>Pa.</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>PA</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Rhode Island</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>R.I.</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>RI</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>South Carolina</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>S.C.</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>South Dakota</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>S.D.</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>SD</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Tennessee</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>Tenn.</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>TN</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Texas</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>Tex.</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>TX</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Utah</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>Utah</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>UT</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Vermont</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>Vt.</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>VT</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Virginia</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>Va.</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>VA</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Washington</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>Wash.</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>WA</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>West Virginia</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>W.Va.</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>WV</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Wisconsin</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>Wis.</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>WI</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Wyoming</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>Wyo.</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>WY</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,7 +706,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,9 +743,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(B2,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>AL</v>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="5">
         <v>8.6</v>
@@ -1182,9 +760,8 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(B3,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>AK</v>
+      <c r="C3" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="5">
         <v>7.6</v>
@@ -1200,9 +777,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>AZ</v>
+      <c r="C4" t="s">
+        <v>61</v>
       </c>
       <c r="D4" s="5">
         <v>7.9</v>
@@ -1218,9 +794,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(B5,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>AR</v>
+      <c r="C5" t="s">
+        <v>62</v>
       </c>
       <c r="D5" s="5">
         <v>6.8</v>
@@ -1236,9 +811,8 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(B6,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>CA</v>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="5">
         <v>8.5</v>
@@ -1254,9 +828,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>CO</v>
+      <c r="C7" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="5">
         <v>5.5</v>
@@ -1272,9 +845,8 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>CT</v>
+      <c r="C8" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="5">
         <v>7.9</v>
@@ -1290,9 +862,8 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(B9,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>DE</v>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
       <c r="D9" s="5">
         <v>6.7</v>
@@ -1325,9 +896,8 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(B11,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>FL</v>
+      <c r="C11" t="s">
+        <v>67</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -1343,9 +913,8 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(B12,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>GA</v>
+      <c r="C12" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="5">
         <v>8.3000000000000007</v>
@@ -1361,9 +930,8 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(B13,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>HI</v>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="5">
         <v>5.4</v>
@@ -1379,9 +947,8 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(B14,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>ID</v>
+      <c r="C14" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="5">
         <v>5.5</v>
@@ -1397,9 +964,8 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(B15,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>IL</v>
+      <c r="C15" t="s">
+        <v>71</v>
       </c>
       <c r="D15" s="5">
         <v>8.1</v>
@@ -1415,9 +981,8 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(B16,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>IN</v>
+      <c r="C16" t="s">
+        <v>72</v>
       </c>
       <c r="D16" s="5">
         <v>7.1</v>
@@ -1433,9 +998,8 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="str">
-        <f>VLOOKUP(B17,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>IA</v>
+      <c r="C17" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="5">
         <v>4.4000000000000004</v>
@@ -1451,9 +1015,8 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="str">
-        <f>VLOOKUP(B18,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>KS</v>
+      <c r="C18" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="5">
         <v>5.2</v>
@@ -1469,9 +1032,8 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(B19,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>KY</v>
+      <c r="C19" t="s">
+        <v>75</v>
       </c>
       <c r="D19" s="5">
         <v>7.6</v>
@@ -1487,9 +1049,8 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(B20,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>LA</v>
+      <c r="C20" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="5">
         <v>7.5</v>
@@ -1505,9 +1066,8 @@
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="str">
-        <f>VLOOKUP(B21,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>ME</v>
+      <c r="C21" t="s">
+        <v>77</v>
       </c>
       <c r="D21" s="5">
         <v>5.9</v>
@@ -1523,9 +1083,8 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="str">
-        <f>VLOOKUP(B22,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>MD</v>
+      <c r="C22" t="s">
+        <v>78</v>
       </c>
       <c r="D22" s="5">
         <v>7.2</v>
@@ -1541,9 +1100,8 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="str">
-        <f>VLOOKUP(B23,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>MA</v>
+      <c r="C23" t="s">
+        <v>79</v>
       </c>
       <c r="D23" s="5">
         <v>6.7</v>
@@ -1559,9 +1117,8 @@
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="str">
-        <f>VLOOKUP(B24,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>MI</v>
+      <c r="C24" t="s">
+        <v>80</v>
       </c>
       <c r="D24" s="5">
         <v>8.3000000000000007</v>
@@ -1577,9 +1134,8 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="str">
-        <f>VLOOKUP(B25,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>MN</v>
+      <c r="C25" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="5">
         <v>4.7</v>
@@ -1595,9 +1151,8 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(B26,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>MS</v>
+      <c r="C26" t="s">
+        <v>82</v>
       </c>
       <c r="D26" s="5">
         <v>9.8000000000000007</v>
@@ -1613,9 +1168,8 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(B27,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>MO</v>
+      <c r="C27" t="s">
+        <v>83</v>
       </c>
       <c r="D27" s="5">
         <v>6.8</v>
@@ -1631,9 +1185,8 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(B28,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>MT</v>
+      <c r="C28" t="s">
+        <v>84</v>
       </c>
       <c r="D28" s="5">
         <v>4.9000000000000004</v>
@@ -1649,9 +1202,8 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="str">
-        <f>VLOOKUP(B29,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>NE</v>
+      <c r="C29" t="s">
+        <v>85</v>
       </c>
       <c r="D29" s="5">
         <v>4.2</v>
@@ -1667,9 +1219,8 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="str">
-        <f>VLOOKUP(B30,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>NV</v>
+      <c r="C30" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="5">
         <v>8.9</v>
@@ -1685,9 +1236,8 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="str">
-        <f>VLOOKUP(B31,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>NH</v>
+      <c r="C31" t="s">
+        <v>87</v>
       </c>
       <c r="D31" s="5">
         <v>5.0999999999999996</v>
@@ -1703,9 +1253,8 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="str">
-        <f>VLOOKUP(B32,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="C32" t="s">
+        <v>88</v>
       </c>
       <c r="D32" s="5">
         <v>7.5</v>
@@ -1721,9 +1270,8 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="str">
-        <f>VLOOKUP(B33,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>NM</v>
+      <c r="C33" t="s">
+        <v>89</v>
       </c>
       <c r="D33" s="5">
         <v>8.6999999999999993</v>
@@ -1739,9 +1287,8 @@
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="str">
-        <f>VLOOKUP(B34,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>NY</v>
+      <c r="C34" t="s">
+        <v>90</v>
       </c>
       <c r="D34" s="5">
         <v>7.3</v>
@@ -1757,9 +1304,8 @@
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="str">
-        <f>VLOOKUP(B35,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>NC</v>
+      <c r="C35" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="5">
         <v>8.3000000000000007</v>
@@ -1775,9 +1321,8 @@
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" t="str">
-        <f>VLOOKUP(B36,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>ND</v>
+      <c r="C36" t="s">
+        <v>92</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
@@ -1793,9 +1338,8 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="str">
-        <f>VLOOKUP(B37,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>OH</v>
+      <c r="C37" t="s">
+        <v>93</v>
       </c>
       <c r="D37" s="5">
         <v>7.2</v>
@@ -1811,9 +1355,8 @@
       <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="str">
-        <f>VLOOKUP(B38,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>OK</v>
+      <c r="C38" t="s">
+        <v>94</v>
       </c>
       <c r="D38" s="5">
         <v>5.7</v>
@@ -1829,9 +1372,8 @@
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="str">
-        <f>VLOOKUP(B39,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>OR</v>
+      <c r="C39" t="s">
+        <v>95</v>
       </c>
       <c r="D39" s="5">
         <v>7.8</v>
@@ -1847,9 +1389,8 @@
       <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="str">
-        <f>VLOOKUP(B40,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>PA</v>
+      <c r="C40" t="s">
+        <v>96</v>
       </c>
       <c r="D40" s="5">
         <v>7</v>
@@ -1882,9 +1423,8 @@
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="str">
-        <f>VLOOKUP(B42,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>RI</v>
+      <c r="C42" t="s">
+        <v>97</v>
       </c>
       <c r="D42" s="5">
         <v>7.8</v>
@@ -1900,9 +1440,8 @@
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="str">
-        <f>VLOOKUP(B43,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>SC</v>
+      <c r="C43" t="s">
+        <v>98</v>
       </c>
       <c r="D43" s="5">
         <v>8.1</v>
@@ -1918,9 +1457,8 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="str">
-        <f>VLOOKUP(B44,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>SD</v>
+      <c r="C44" t="s">
+        <v>99</v>
       </c>
       <c r="D44" s="5">
         <v>3.9</v>
@@ -1936,9 +1474,8 @@
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="str">
-        <f>VLOOKUP(B45,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>TN</v>
+      <c r="C45" t="s">
+        <v>100</v>
       </c>
       <c r="D45" s="5">
         <v>7.8</v>
@@ -1954,9 +1491,8 @@
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="str">
-        <f>VLOOKUP(B46,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>TX</v>
+      <c r="C46" t="s">
+        <v>101</v>
       </c>
       <c r="D46" s="5">
         <v>6.1</v>
@@ -1972,9 +1508,8 @@
       <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" t="str">
-        <f>VLOOKUP(B47,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>UT</v>
+      <c r="C47" t="s">
+        <v>102</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
@@ -1990,9 +1525,8 @@
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="str">
-        <f>VLOOKUP(B48,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>VT</v>
+      <c r="C48" t="s">
+        <v>103</v>
       </c>
       <c r="D48" s="5">
         <v>5.5</v>
@@ -2008,9 +1542,8 @@
       <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="str">
-        <f>VLOOKUP(B49,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>VA</v>
+      <c r="C49" t="s">
+        <v>104</v>
       </c>
       <c r="D49" s="5">
         <v>6.1</v>
@@ -2026,9 +1559,8 @@
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" t="str">
-        <f>VLOOKUP(B50,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>WA</v>
+      <c r="C50" t="s">
+        <v>105</v>
       </c>
       <c r="D50" s="5">
         <v>6.5</v>
@@ -2044,9 +1576,8 @@
       <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C51" t="str">
-        <f>VLOOKUP(B51,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>WV</v>
+      <c r="C51" t="s">
+        <v>106</v>
       </c>
       <c r="D51" s="5">
         <v>6.9</v>
@@ -2062,9 +1593,8 @@
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="str">
-        <f>VLOOKUP(B52,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>WI</v>
+      <c r="C52" t="s">
+        <v>107</v>
       </c>
       <c r="D52" s="5">
         <v>5.3</v>
@@ -2080,9 +1610,8 @@
       <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="C53" t="str">
-        <f>VLOOKUP(B53,[1]Sheet2!$A$1:$C$50,3,FALSE)</f>
-        <v>WY</v>
+      <c r="C53" t="s">
+        <v>108</v>
       </c>
       <c r="D53" s="5">
         <v>4.3</v>
